--- a/4 курс/1 семестр/Экономика/ДР 1/HW.xlsx
+++ b/4 курс/1 семестр/Экономика/ДР 1/HW.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1193,54 +1193,54 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1551,15 +1551,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:18" ht="170.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1805,27 +1805,27 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="45">
         <f>SUM(H3:H7)</f>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" spans="1:18" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1940,56 +1940,56 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="45">
         <f>SUM(E12:E16)</f>
         <v>18514000</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
     </row>
     <row r="20" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102" t="s">
+      <c r="E20" s="99"/>
+      <c r="F20" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="104"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="103"/>
+      <c r="F21" s="101"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -2105,13 +2105,13 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="24">
         <f>SUM(F22:F26)</f>
         <v>210.8</v>
@@ -2122,14 +2122,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
     </row>
     <row r="30" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
@@ -2217,24 +2217,24 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="89">
         <f>SUM(D31:D35)</f>
         <v>23828040</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
       <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
@@ -2370,25 +2370,25 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="97"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
       <c r="E46" s="90">
         <f>SUM(E40:E45)</f>
         <v>3752338</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
     </row>
     <row r="49" spans="1:10" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -2599,14 +2599,14 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
     </row>
     <row r="57" spans="1:10" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="44" t="s">
@@ -2654,12 +2654,12 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
     </row>
     <row r="61" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="44" t="s">
@@ -2694,10 +2694,10 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="93"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="53"/>
       <c r="E64" s="53"/>
     </row>
@@ -2738,12 +2738,12 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="94" t="s">
+      <c r="B70" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
     </row>
     <row r="71" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="44" t="s">
@@ -2878,12 +2878,12 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
       <c r="E77" s="19">
         <f>SUM(E72:E76)</f>
         <v>14.315629164287072</v>
@@ -2894,12 +2894,12 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="94" t="s">
+      <c r="B80" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="C80" s="94"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="94"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
     </row>
     <row r="81" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="44" t="s">
@@ -3014,24 +3014,24 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="95" t="s">
+      <c r="A87" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="96"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="97"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="96"/>
       <c r="E87" s="27">
         <f>SUM(E82:E86)</f>
         <v>724533.33333333326</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="93" t="s">
+      <c r="B89" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="93"/>
-      <c r="D89" s="93"/>
-      <c r="E89" s="93"/>
+      <c r="C89" s="103"/>
+      <c r="D89" s="103"/>
+      <c r="E89" s="103"/>
       <c r="F89" s="60"/>
     </row>
     <row r="90" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.3">
@@ -3067,11 +3067,11 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="94" t="s">
+      <c r="B93" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="94"/>
-      <c r="D93" s="94"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
     </row>
     <row r="94" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="44" t="s">
@@ -3234,10 +3234,10 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="91" t="s">
+      <c r="A105" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="92"/>
+      <c r="B105" s="107"/>
       <c r="C105" s="19">
         <f>SUM(C95:C104)</f>
         <v>202.33665083333335</v>
@@ -3246,6 +3246,21 @@
     <row r="108" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A1:G1"/>
@@ -3257,21 +3272,6 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3283,7 +3283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
@@ -3301,75 +3301,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="106"/>
-      <c r="B2" s="108" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="93" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107">
+    <row r="3" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="92">
         <v>160</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="107" t="s">
+      <c r="I3" s="92" t="s">
         <v>137</v>
       </c>
     </row>
